--- a/data/input/list_of_colleges.xlsx
+++ b/data/input/list_of_colleges.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jamis\Projects\capstone\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jamis\Projects\capstone\data\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA21979-F3BD-451D-AC70-497A92607205}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65933E71-EA6C-4A0C-8FFF-3D7587863340}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{7A6EE597-2801-42B4-B728-42C0DB3F7A71}"/>
+    <workbookView minimized="1" xWindow="-9030" yWindow="6825" windowWidth="7500" windowHeight="7470" xr2:uid="{7A6EE597-2801-42B4-B728-42C0DB3F7A71}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1328,8 +1328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{072644DE-222A-412E-92EF-F13969FF5973}">
   <dimension ref="A1:R61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
